--- a/WPDigitalizer/MQ136/MQ 136 análisis.xlsx
+++ b/WPDigitalizer/MQ136/MQ 136 análisis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Andrés\Miguel Califa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c88fdd8443585846/Escritorio/MQSensorsLib_Docs/WPDigitalizer/MQ136/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E184CA-18BF-47F7-A09B-8FDCAB1B486C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{D7E184CA-18BF-47F7-A09B-8FDCAB1B486C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE7BE488-EC4E-42F6-8C91-634244A49DD2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E7386C9A-BD4F-4764-9504-B933BB372B25}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E7386C9A-BD4F-4764-9504-B933BB372B25}"/>
   </bookViews>
   <sheets>
     <sheet name="H2S" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>H2S</t>
   </si>
@@ -50,10 +50,13 @@
     <t>AIR</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Rs/R0</t>
   </si>
   <si>
-    <t>X</t>
+    <t>PPM</t>
+  </si>
+  <si>
+    <t>RS/R0</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -122,17 +125,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -262,54 +254,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,8 +411,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>data</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -453,10 +446,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.496978478685777E-2"/>
+                  <c:y val="0.16132181393992417"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -470,7 +469,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -494,40 +493,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1.4764908816142599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.5291291502161</c:v>
+                  <c:v>1.3195796766610699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.840151156008599</c:v>
+                  <c:v>1.1790227896547201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.432916602715299</c:v>
+                  <c:v>1.10877404047073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.687350052582499</c:v>
+                  <c:v>1.04275819133964</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.363159789327199</c:v>
+                  <c:v>0.99035671883909404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.421977746760099</c:v>
+                  <c:v>0.95067447521681803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.130875635612298</c:v>
+                  <c:v>0.92192838429174395</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.194868166432201</c:v>
+                  <c:v>0.88494780490235303</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.669725647531905</c:v>
+                  <c:v>0.83220179897286795</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>86.957821594500004</c:v>
+                  <c:v>0.78258188112701099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>99.4605379473646</c:v>
+                  <c:v>0.76655172890546397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,40 +538,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.4764908816142599</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3195796766610699</c:v>
+                  <c:v>13.5291291502161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1790227896547201</c:v>
+                  <c:v>19.840151156008599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.10877404047073</c:v>
+                  <c:v>24.432916602715299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.04275819133964</c:v>
+                  <c:v>29.687350052582499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99035671883909404</c:v>
+                  <c:v>39.363159789327199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95067447521681803</c:v>
+                  <c:v>44.421977746760099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92192838429174395</c:v>
+                  <c:v>49.130875635612298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88494780490235303</c:v>
+                  <c:v>56.194868166432201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83220179897286795</c:v>
+                  <c:v>69.669725647531905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.78258188112701099</c:v>
+                  <c:v>86.957821594500004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.76655172890546397</c:v>
+                  <c:v>99.4605379473646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,7 +579,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D51-40A4-ABDD-58E573FC4109}"/>
+              <c16:uniqueId val="{00000002-06B5-4647-88B7-76AC5E9AE2FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -660,6 +659,7 @@
       <c:valAx>
         <c:axId val="1208748799"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -850,21 +850,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'NH4'!$B$1:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>NH4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>data</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -895,10 +884,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16561264216972879"/>
+                  <c:y val="0.19671879556722086"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -912,7 +907,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -936,40 +931,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2.5246303697043699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.4814359158568</c:v>
+                  <c:v>2.32652504319717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.1812013968988</c:v>
+                  <c:v>1.9562778720977401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.840151156008599</c:v>
+                  <c:v>1.9165105343904301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.999656193393999</c:v>
+                  <c:v>1.7665647165593701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.388367209651399</c:v>
+                  <c:v>1.6783992782311601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.4886116313569</c:v>
+                  <c:v>1.6277963080350999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.590438509021801</c:v>
+                  <c:v>1.53091287515208</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.435087163290497</c:v>
+                  <c:v>1.44008986012791</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.248807151165103</c:v>
+                  <c:v>1.35462427453873</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59.297108662256697</c:v>
+                  <c:v>1.2232019143010899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70.139264581934995</c:v>
+                  <c:v>1.1504775152829301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,40 +976,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.5246303697043699</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.32652504319717</c:v>
+                  <c:v>12.4814359158568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9562778720977401</c:v>
+                  <c:v>18.1812013968988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9165105343904301</c:v>
+                  <c:v>19.840151156008599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7665647165593701</c:v>
+                  <c:v>22.999656193393999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6783992782311601</c:v>
+                  <c:v>27.388367209651399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6277963080350999</c:v>
+                  <c:v>29.4886116313569</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.53091287515208</c:v>
+                  <c:v>35.590438509021801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.44008986012791</c:v>
+                  <c:v>40.435087163290497</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.35462427453873</c:v>
+                  <c:v>46.248807151165103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2232019143010899</c:v>
+                  <c:v>59.297108662256697</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1504775152829301</c:v>
+                  <c:v>70.139264581934995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,7 +1017,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-44CE-476F-B8A9-A3606CB88966}"/>
+              <c16:uniqueId val="{00000002-9D4F-4DB6-8C31-E7E9724CAC00}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1102,6 +1097,7 @@
       <c:valAx>
         <c:axId val="1183857871"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1292,21 +1288,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>CO!$B$1:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>CO</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>data</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1337,10 +1322,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22466863517060368"/>
+                  <c:y val="4.1647346165062701E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1354,7 +1345,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1378,40 +1369,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.8665605346682597</c:v>
+                  <c:v>2.8507869769701601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.8957280955174</c:v>
+                  <c:v>2.5206802855550801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.575405239772799</c:v>
+                  <c:v>2.3946068399985601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.785204084464802</c:v>
+                  <c:v>2.2293547152559001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.1342001330577</c:v>
+                  <c:v>2.13968758658506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.590438509021801</c:v>
+                  <c:v>1.99175625546632</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.326189803283199</c:v>
+                  <c:v>1.9111684619631399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.613838698463397</c:v>
+                  <c:v>1.7615206736740501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66.469796173740605</c:v>
+                  <c:v>1.6733791092486401</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.805683599557</c:v>
+                  <c:v>1.54105613788171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131.87708033960999</c:v>
+                  <c:v>1.43434955888966</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>164.60153270291499</c:v>
+                  <c:v>1.3764085170002101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,40 +1414,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.8507869769701601</c:v>
+                  <c:v>9.8665605346682597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5206802855550801</c:v>
+                  <c:v>15.8957280955174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3946068399985601</c:v>
+                  <c:v>19.575405239772799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2293547152559001</c:v>
+                  <c:v>23.785204084464802</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.13968758658506</c:v>
+                  <c:v>28.1342001330577</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.99175625546632</c:v>
+                  <c:v>35.590438509021801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9111684619631399</c:v>
+                  <c:v>45.326189803283199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7615206736740501</c:v>
+                  <c:v>53.613838698463397</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6733791092486401</c:v>
+                  <c:v>66.469796173740605</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.54105613788171</c:v>
+                  <c:v>100.805683599557</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.43434955888966</c:v>
+                  <c:v>131.87708033960999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3764085170002101</c:v>
+                  <c:v>164.60153270291499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,7 +1455,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F39-4B74-8116-C3D770F6BA05}"/>
+              <c16:uniqueId val="{00000002-3FD2-4D03-9546-58A390EFEBCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1544,6 +1535,7 @@
       <c:valAx>
         <c:axId val="1191270559"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1733,8 +1725,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Data</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1755,50 +1750,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>AIR!$A$3:$A$14</c:f>
@@ -1806,40 +1757,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.8665605346682597</c:v>
+                  <c:v>3.54380862401025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.4814359158568</c:v>
+                  <c:v>3.5770162947794102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.580735478517401</c:v>
+                  <c:v>3.57287878312887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.4652609417451</c:v>
+                  <c:v>3.5880323862097301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.495788281426702</c:v>
+                  <c:v>3.5662363445698402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.628447702124902</c:v>
+                  <c:v>3.5993274382684701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.628387647269797</c:v>
+                  <c:v>3.5603737435365499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.098296664832702</c:v>
+                  <c:v>3.5763263769196798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.849512998371694</c:v>
+                  <c:v>3.5560940788758</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99.4605379473646</c:v>
+                  <c:v>3.5520210712932099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>128.81292646955899</c:v>
+                  <c:v>3.5489190413534901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>198.66112387347701</c:v>
+                  <c:v>3.5437282038819098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1851,40 +1802,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.54380862401025</c:v>
+                  <c:v>9.8665605346682597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5770162947794102</c:v>
+                  <c:v>12.4814359158568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.57287878312887</c:v>
+                  <c:v>17.580735478517401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5880323862097301</c:v>
+                  <c:v>22.4652609417451</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5662363445698402</c:v>
+                  <c:v>30.495788281426702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5993274382684701</c:v>
+                  <c:v>39.628447702124902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5603737435365499</c:v>
+                  <c:v>49.628387647269797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5763263769196798</c:v>
+                  <c:v>59.098296664832702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5560940788758</c:v>
+                  <c:v>70.849512998371694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5520210712932099</c:v>
+                  <c:v>99.4605379473646</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5489190413534901</c:v>
+                  <c:v>128.81292646955899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5437282038819098</c:v>
+                  <c:v>198.66112387347701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,7 +1843,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9FA3-4072-B37B-63603EB9C083}"/>
+              <c16:uniqueId val="{00000006-4016-4B5E-ABC9-B3B74E27C4E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1972,6 +1923,7 @@
       <c:valAx>
         <c:axId val="1208742975"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4770,8 +4722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CCB7CE-19A8-46F9-8518-060D23A53234}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4786,216 +4738,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
+        <v>1.4764908816142599</v>
+      </c>
+      <c r="B3" s="3">
         <v>10</v>
       </c>
-      <c r="B3" s="6">
-        <v>1.4764908816142599</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
+        <v>1.3195796766610699</v>
+      </c>
+      <c r="B4" s="4">
         <v>13.5291291502161</v>
       </c>
-      <c r="B4" s="7">
-        <v>1.3195796766610699</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
+        <v>1.1790227896547201</v>
+      </c>
+      <c r="B5" s="4">
         <v>19.840151156008599</v>
       </c>
-      <c r="B5" s="7">
-        <v>1.1790227896547201</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
+        <v>1.10877404047073</v>
+      </c>
+      <c r="B6" s="4">
         <v>24.432916602715299</v>
       </c>
-      <c r="B6" s="7">
-        <v>1.10877404047073</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
+        <v>1.04275819133964</v>
+      </c>
+      <c r="B7" s="4">
         <v>29.687350052582499</v>
       </c>
-      <c r="B7" s="7">
-        <v>1.04275819133964</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
+        <v>0.99035671883909404</v>
+      </c>
+      <c r="B8" s="4">
         <v>39.363159789327199</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.99035671883909404</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
+        <v>0.95067447521681803</v>
+      </c>
+      <c r="B9" s="4">
         <v>44.421977746760099</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.95067447521681803</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
+        <v>0.92192838429174395</v>
+      </c>
+      <c r="B10" s="4">
         <v>49.130875635612298</v>
       </c>
-      <c r="B10" s="7">
-        <v>0.92192838429174395</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
+        <v>0.88494780490235303</v>
+      </c>
+      <c r="B11" s="4">
         <v>56.194868166432201</v>
       </c>
-      <c r="B11" s="7">
-        <v>0.88494780490235303</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
+        <v>0.83220179897286795</v>
+      </c>
+      <c r="B12" s="4">
         <v>69.669725647531905</v>
       </c>
-      <c r="B12" s="7">
-        <v>0.83220179897286795</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
+        <v>0.78258188112701099</v>
+      </c>
+      <c r="B13" s="4">
         <v>86.957821594500004</v>
       </c>
-      <c r="B13" s="7">
-        <v>0.78258188112701099</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
+        <v>0.76655172890546397</v>
+      </c>
+      <c r="B14" s="5">
         <v>99.4605379473646</v>
       </c>
-      <c r="B14" s="8">
-        <v>0.76655172890546397</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5011,128 +4962,128 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
+        <v>2.5246303697043699</v>
+      </c>
+      <c r="B3" s="3">
         <v>10</v>
       </c>
-      <c r="B3" s="7">
-        <v>2.5246303697043699</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
+        <v>2.32652504319717</v>
+      </c>
+      <c r="B4" s="4">
         <v>12.4814359158568</v>
       </c>
-      <c r="B4" s="7">
-        <v>2.32652504319717</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
+        <v>1.9562778720977401</v>
+      </c>
+      <c r="B5" s="4">
         <v>18.1812013968988</v>
       </c>
-      <c r="B5" s="7">
-        <v>1.9562778720977401</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
+        <v>1.9165105343904301</v>
+      </c>
+      <c r="B6" s="4">
         <v>19.840151156008599</v>
       </c>
-      <c r="B6" s="7">
-        <v>1.9165105343904301</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
+        <v>1.7665647165593701</v>
+      </c>
+      <c r="B7" s="4">
         <v>22.999656193393999</v>
       </c>
-      <c r="B7" s="7">
-        <v>1.7665647165593701</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
+        <v>1.6783992782311601</v>
+      </c>
+      <c r="B8" s="4">
         <v>27.388367209651399</v>
       </c>
-      <c r="B8" s="7">
-        <v>1.6783992782311601</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
+        <v>1.6277963080350999</v>
+      </c>
+      <c r="B9" s="4">
         <v>29.4886116313569</v>
       </c>
-      <c r="B9" s="7">
-        <v>1.6277963080350999</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
+        <v>1.53091287515208</v>
+      </c>
+      <c r="B10" s="4">
         <v>35.590438509021801</v>
       </c>
-      <c r="B10" s="7">
-        <v>1.53091287515208</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
+        <v>1.44008986012791</v>
+      </c>
+      <c r="B11" s="4">
         <v>40.435087163290497</v>
       </c>
-      <c r="B11" s="7">
-        <v>1.44008986012791</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
+        <v>1.35462427453873</v>
+      </c>
+      <c r="B12" s="4">
         <v>46.248807151165103</v>
       </c>
-      <c r="B12" s="7">
-        <v>1.35462427453873</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
+        <v>1.2232019143010899</v>
+      </c>
+      <c r="B13" s="4">
         <v>59.297108662256697</v>
       </c>
-      <c r="B13" s="7">
-        <v>1.2232019143010899</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
+        <v>1.1504775152829301</v>
+      </c>
+      <c r="B14" s="5">
         <v>70.139264581934995</v>
       </c>
-      <c r="B14" s="8">
-        <v>1.1504775152829301</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5147,136 +5098,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8634364C-4473-41C2-884D-F64703EA4435}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
+        <v>2.8507869769701601</v>
+      </c>
+      <c r="B3" s="22">
         <v>9.8665605346682597</v>
       </c>
-      <c r="B3" s="6">
-        <v>2.8507869769701601</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
+        <v>2.5206802855550801</v>
+      </c>
+      <c r="B4" s="22">
         <v>15.8957280955174</v>
       </c>
-      <c r="B4" s="7">
-        <v>2.5206802855550801</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
+        <v>2.3946068399985601</v>
+      </c>
+      <c r="B5" s="22">
         <v>19.575405239772799</v>
       </c>
-      <c r="B5" s="17">
-        <v>2.3946068399985601</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="8">
+        <v>2.2293547152559001</v>
+      </c>
+      <c r="B6" s="22">
         <v>23.785204084464802</v>
       </c>
-      <c r="B6" s="17">
-        <v>2.2293547152559001</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="8">
+        <v>2.13968758658506</v>
+      </c>
+      <c r="B7" s="22">
         <v>28.1342001330577</v>
       </c>
-      <c r="B7" s="17">
-        <v>2.13968758658506</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="8">
+        <v>1.99175625546632</v>
+      </c>
+      <c r="B8" s="22">
         <v>35.590438509021801</v>
       </c>
-      <c r="B8" s="17">
-        <v>1.99175625546632</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="8">
+        <v>1.9111684619631399</v>
+      </c>
+      <c r="B9" s="22">
         <v>45.326189803283199</v>
       </c>
-      <c r="B9" s="17">
-        <v>1.9111684619631399</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="8">
+        <v>1.7615206736740501</v>
+      </c>
+      <c r="B10" s="22">
         <v>53.613838698463397</v>
       </c>
-      <c r="B10" s="17">
-        <v>1.7615206736740501</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="8">
+        <v>1.6733791092486401</v>
+      </c>
+      <c r="B11" s="22">
         <v>66.469796173740605</v>
       </c>
-      <c r="B11" s="17">
-        <v>1.6733791092486401</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="8">
+        <v>1.54105613788171</v>
+      </c>
+      <c r="B12" s="22">
         <v>100.805683599557</v>
       </c>
-      <c r="B12" s="17">
-        <v>1.54105613788171</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="8">
+        <v>1.43434955888966</v>
+      </c>
+      <c r="B13" s="22">
         <v>131.87708033960999</v>
       </c>
-      <c r="B13" s="17">
-        <v>1.43434955888966</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="10">
+        <v>1.3764085170002101</v>
+      </c>
+      <c r="B14" s="22">
         <v>164.60153270291499</v>
       </c>
-      <c r="B14" s="19">
-        <v>1.3764085170002101</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5284,8 +5234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC87F5F-D26C-44D9-A361-9BC89CBDF81C}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5297,123 +5247,123 @@
       <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="11">
+        <v>3.54380862401025</v>
+      </c>
+      <c r="B3" s="3">
         <v>9.8665605346682597</v>
       </c>
-      <c r="B3" s="22">
-        <v>3.54380862401025</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
+        <v>3.5770162947794102</v>
+      </c>
+      <c r="B4" s="4">
         <v>12.4814359158568</v>
       </c>
-      <c r="B4" s="4">
-        <v>3.5770162947794102</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="9">
+        <v>3.57287878312887</v>
+      </c>
+      <c r="B5" s="4">
         <v>17.580735478517401</v>
       </c>
-      <c r="B5" s="18">
-        <v>3.57287878312887</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="9">
+        <v>3.5880323862097301</v>
+      </c>
+      <c r="B6" s="4">
         <v>22.4652609417451</v>
       </c>
-      <c r="B6" s="18">
-        <v>3.5880323862097301</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="9">
+        <v>3.5662363445698402</v>
+      </c>
+      <c r="B7" s="4">
         <v>30.495788281426702</v>
       </c>
-      <c r="B7" s="18">
-        <v>3.5662363445698402</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="9">
+        <v>3.5993274382684701</v>
+      </c>
+      <c r="B8" s="4">
         <v>39.628447702124902</v>
       </c>
-      <c r="B8" s="18">
-        <v>3.5993274382684701</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="2">
+        <v>3.5603737435365499</v>
+      </c>
+      <c r="B9" s="4">
         <v>49.628387647269797</v>
       </c>
-      <c r="B9" s="4">
-        <v>3.5603737435365499</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="9">
+        <v>3.5763263769196798</v>
+      </c>
+      <c r="B10" s="4">
         <v>59.098296664832702</v>
       </c>
-      <c r="B10" s="18">
-        <v>3.5763263769196798</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="2">
+        <v>3.5560940788758</v>
+      </c>
+      <c r="B11" s="4">
         <v>70.849512998371694</v>
       </c>
-      <c r="B11" s="4">
-        <v>3.5560940788758</v>
-      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="2">
+        <v>3.5520210712932099</v>
+      </c>
+      <c r="B12" s="4">
         <v>99.4605379473646</v>
       </c>
-      <c r="B12" s="4">
-        <v>3.5520210712932099</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="2">
+        <v>3.5489190413534901</v>
+      </c>
+      <c r="B13" s="4">
         <v>128.81292646955899</v>
       </c>
-      <c r="B13" s="4">
-        <v>3.5489190413534901</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="12">
+        <v>3.5437282038819098</v>
+      </c>
+      <c r="B14" s="5">
         <v>198.66112387347701</v>
       </c>
-      <c r="B14" s="23">
-        <v>3.5437282038819098</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/WPDigitalizer/MQ136/MQ 136 análisis.xlsx
+++ b/WPDigitalizer/MQ136/MQ 136 análisis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c88fdd8443585846/Escritorio/MQSensorsLib_Docs/WPDigitalizer/MQ136/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Escritorio\MQSensorsLib_Docs\WPDigitalizer\MQ136\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{D7E184CA-18BF-47F7-A09B-8FDCAB1B486C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE7BE488-EC4E-42F6-8C91-634244A49DD2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A283E8-EC4E-454C-A3D3-D3DD492CA5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E7386C9A-BD4F-4764-9504-B933BB372B25}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E7386C9A-BD4F-4764-9504-B933BB372B25}"/>
   </bookViews>
   <sheets>
     <sheet name="H2S" sheetId="1" r:id="rId1"/>
@@ -275,6 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,7 +300,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +446,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -884,7 +884,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1322,7 +1322,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1750,6 +1750,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>AIR!$A$3:$A$14</c:f>
@@ -4723,7 +4737,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4738,10 +4752,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -4916,8 +4930,13 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
+        <f>(1043.3)*((A19)^-3.282)</f>
+        <v>2.9141828874885021</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -4962,16 +4981,16 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -5098,17 +5117,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8634364C-4473-41C2-884D-F64703EA4435}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -5122,7 +5141,7 @@
       <c r="A3" s="3">
         <v>2.8507869769701601</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="14">
         <v>9.8665605346682597</v>
       </c>
     </row>
@@ -5130,7 +5149,7 @@
       <c r="A4" s="4">
         <v>2.5206802855550801</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="14">
         <v>15.8957280955174</v>
       </c>
     </row>
@@ -5138,7 +5157,7 @@
       <c r="A5" s="8">
         <v>2.3946068399985601</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="14">
         <v>19.575405239772799</v>
       </c>
     </row>
@@ -5146,7 +5165,7 @@
       <c r="A6" s="8">
         <v>2.2293547152559001</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="14">
         <v>23.785204084464802</v>
       </c>
     </row>
@@ -5154,7 +5173,7 @@
       <c r="A7" s="8">
         <v>2.13968758658506</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="14">
         <v>28.1342001330577</v>
       </c>
     </row>
@@ -5162,7 +5181,7 @@
       <c r="A8" s="8">
         <v>1.99175625546632</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="14">
         <v>35.590438509021801</v>
       </c>
     </row>
@@ -5170,7 +5189,7 @@
       <c r="A9" s="8">
         <v>1.9111684619631399</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="14">
         <v>45.326189803283199</v>
       </c>
     </row>
@@ -5178,7 +5197,7 @@
       <c r="A10" s="8">
         <v>1.7615206736740501</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="14">
         <v>53.613838698463397</v>
       </c>
     </row>
@@ -5186,7 +5205,7 @@
       <c r="A11" s="8">
         <v>1.6733791092486401</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="14">
         <v>66.469796173740605</v>
       </c>
     </row>
@@ -5194,7 +5213,7 @@
       <c r="A12" s="8">
         <v>1.54105613788171</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="14">
         <v>100.805683599557</v>
       </c>
     </row>
@@ -5202,7 +5221,7 @@
       <c r="A13" s="8">
         <v>1.43434955888966</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="14">
         <v>131.87708033960999</v>
       </c>
     </row>
@@ -5210,7 +5229,7 @@
       <c r="A14" s="10">
         <v>1.3764085170002101</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="14">
         <v>164.60153270291499</v>
       </c>
     </row>
@@ -5234,17 +5253,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC87F5F-D26C-44D9-A361-9BC89CBDF81C}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
